--- a/project/wingshapes.xlsx
+++ b/project/wingshapes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="35">
   <si>
     <t>wing001</t>
   </si>
@@ -58,6 +58,69 @@
   </si>
   <si>
     <t>wing006</t>
+  </si>
+  <si>
+    <t>wing007</t>
+  </si>
+  <si>
+    <t>wing008</t>
+  </si>
+  <si>
+    <t>wing009</t>
+  </si>
+  <si>
+    <t>wing010</t>
+  </si>
+  <si>
+    <t>davis/_/reduced/_/camber</t>
+  </si>
+  <si>
+    <t>wing011</t>
+  </si>
+  <si>
+    <t>wing012</t>
+  </si>
+  <si>
+    <t>wing013</t>
+  </si>
+  <si>
+    <t>davis/_/7%</t>
+  </si>
+  <si>
+    <t>wing014</t>
+  </si>
+  <si>
+    <t>wing015</t>
+  </si>
+  <si>
+    <t>Reflexed</t>
+  </si>
+  <si>
+    <t>wing016</t>
+  </si>
+  <si>
+    <t>wing017</t>
+  </si>
+  <si>
+    <t>wing018</t>
+  </si>
+  <si>
+    <t>wing019</t>
+  </si>
+  <si>
+    <t>wing020</t>
+  </si>
+  <si>
+    <t>wing021</t>
+  </si>
+  <si>
+    <t>wing022</t>
+  </si>
+  <si>
+    <t>wing023</t>
+  </si>
+  <si>
+    <t>wing024</t>
   </si>
 </sst>
 </file>
@@ -396,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:G73"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A340" sqref="A340:K353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,6 +2942,7373 @@
         <v>1</v>
       </c>
       <c r="K85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0.6</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B91">
+        <v>0.92</v>
+      </c>
+      <c r="C91">
+        <v>-0.04</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B92">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C92">
+        <v>-0.18</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1.268</v>
+      </c>
+      <c r="B93">
+        <v>0.43</v>
+      </c>
+      <c r="C93">
+        <v>-0.28199999999999997</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B94">
+        <v>0.34</v>
+      </c>
+      <c r="C94">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1.958</v>
+      </c>
+      <c r="B95">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C95">
+        <v>-0.377</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B96">
+        <v>0.248</v>
+      </c>
+      <c r="C96">
+        <v>-0.371</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.44</v>
+      </c>
+      <c r="B97">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C97">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B98">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C98">
+        <v>-0.29599999999999999</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2.754</v>
+      </c>
+      <c r="B99">
+        <v>0.105</v>
+      </c>
+      <c r="C99">
+        <v>-0.25</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B100">
+        <v>0.04</v>
+      </c>
+      <c r="C100">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0.6</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B105">
+        <v>0.93</v>
+      </c>
+      <c r="C105">
+        <v>-0.06</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B106">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C106">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1.268</v>
+      </c>
+      <c r="B107">
+        <v>0.43</v>
+      </c>
+      <c r="C107">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B108">
+        <v>0.32</v>
+      </c>
+      <c r="C108">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1.958</v>
+      </c>
+      <c r="B109">
+        <v>0.26</v>
+      </c>
+      <c r="C109">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B110">
+        <v>0.222</v>
+      </c>
+      <c r="C110">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2.44</v>
+      </c>
+      <c r="B111">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C111">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B112">
+        <v>0.125</v>
+      </c>
+      <c r="C112">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2.754</v>
+      </c>
+      <c r="B113">
+        <v>0.09</v>
+      </c>
+      <c r="C113">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>11</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B114">
+        <v>0.04</v>
+      </c>
+      <c r="C114">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0.6</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B119">
+        <v>0.93</v>
+      </c>
+      <c r="C119">
+        <v>-0.06</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B120">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C120">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>11</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1.268</v>
+      </c>
+      <c r="B121">
+        <v>0.43</v>
+      </c>
+      <c r="C121">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B122">
+        <v>0.32</v>
+      </c>
+      <c r="C122">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1.958</v>
+      </c>
+      <c r="B123">
+        <v>0.26</v>
+      </c>
+      <c r="C123">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B124">
+        <v>0.222</v>
+      </c>
+      <c r="C124">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2.44</v>
+      </c>
+      <c r="B125">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C125">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B126">
+        <v>0.125</v>
+      </c>
+      <c r="C126">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>11</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2.754</v>
+      </c>
+      <c r="B127">
+        <v>0.09</v>
+      </c>
+      <c r="C127">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>4.5</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B128">
+        <v>0.04</v>
+      </c>
+      <c r="C128">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0.6</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>-5</v>
+      </c>
+      <c r="F132">
+        <v>11</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B133">
+        <v>0.93</v>
+      </c>
+      <c r="C133">
+        <v>-0.06</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>-5</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B134">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C134">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0.3</v>
+      </c>
+      <c r="F134">
+        <v>11</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1.268</v>
+      </c>
+      <c r="B135">
+        <v>0.43</v>
+      </c>
+      <c r="C135">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0.1</v>
+      </c>
+      <c r="F135">
+        <v>11</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B136">
+        <v>0.32</v>
+      </c>
+      <c r="C136">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>11</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1.958</v>
+      </c>
+      <c r="B137">
+        <v>0.26</v>
+      </c>
+      <c r="C137">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>11</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B138">
+        <v>0.222</v>
+      </c>
+      <c r="C138">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>11</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2.44</v>
+      </c>
+      <c r="B139">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C139">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>11</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B140">
+        <v>0.125</v>
+      </c>
+      <c r="C140">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>11</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2.754</v>
+      </c>
+      <c r="B141">
+        <v>0.09</v>
+      </c>
+      <c r="C141">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>4.5</v>
+      </c>
+      <c r="F141">
+        <v>11</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B142">
+        <v>0.04</v>
+      </c>
+      <c r="C142">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>11</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>0.6</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B147">
+        <v>0.93</v>
+      </c>
+      <c r="C147">
+        <v>-0.06</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>4</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B148">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C148">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1.268</v>
+      </c>
+      <c r="B149">
+        <v>0.43</v>
+      </c>
+      <c r="C149">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1</v>
+      </c>
+      <c r="K149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B150">
+        <v>0.32</v>
+      </c>
+      <c r="C150">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1.958</v>
+      </c>
+      <c r="B151">
+        <v>0.26</v>
+      </c>
+      <c r="C151">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>11</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B152">
+        <v>0.222</v>
+      </c>
+      <c r="C152">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>11</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2.44</v>
+      </c>
+      <c r="B153">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C153">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1</v>
+      </c>
+      <c r="K153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B154">
+        <v>0.125</v>
+      </c>
+      <c r="C154">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>11</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2.754</v>
+      </c>
+      <c r="B155">
+        <v>0.09</v>
+      </c>
+      <c r="C155">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>11</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B156">
+        <v>0.04</v>
+      </c>
+      <c r="C156">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>11</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1</v>
+      </c>
+      <c r="K156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0.6</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>-5</v>
+      </c>
+      <c r="F161">
+        <v>11</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B162">
+        <v>0.93</v>
+      </c>
+      <c r="C162">
+        <v>-0.06</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>-5</v>
+      </c>
+      <c r="F162">
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <v>4</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B163">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C163">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>-2</v>
+      </c>
+      <c r="F163">
+        <v>11</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>18</v>
+      </c>
+      <c r="K163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1.268</v>
+      </c>
+      <c r="B164">
+        <v>0.43</v>
+      </c>
+      <c r="C164">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>-4</v>
+      </c>
+      <c r="F164">
+        <v>11</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B165">
+        <v>0.32</v>
+      </c>
+      <c r="C165">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>11</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1.958</v>
+      </c>
+      <c r="B166">
+        <v>0.26</v>
+      </c>
+      <c r="C166">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>11</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B167">
+        <v>0.222</v>
+      </c>
+      <c r="C167">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>11</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1</v>
+      </c>
+      <c r="K167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2.44</v>
+      </c>
+      <c r="B168">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C168">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>11</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1</v>
+      </c>
+      <c r="K168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B169">
+        <v>0.125</v>
+      </c>
+      <c r="C169">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>11</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1</v>
+      </c>
+      <c r="K169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2.754</v>
+      </c>
+      <c r="B170">
+        <v>0.09</v>
+      </c>
+      <c r="C170">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>11</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1</v>
+      </c>
+      <c r="K170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B171">
+        <v>0.04</v>
+      </c>
+      <c r="C171">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>11</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1</v>
+      </c>
+      <c r="K171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" t="s">
+        <v>2</v>
+      </c>
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>0.6</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>11</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B176">
+        <v>0.93</v>
+      </c>
+      <c r="C176">
+        <v>-0.06</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>11</v>
+      </c>
+      <c r="G176">
+        <v>4</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B177">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C177">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>11</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1.268</v>
+      </c>
+      <c r="B178">
+        <v>0.43</v>
+      </c>
+      <c r="C178">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>11</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B179">
+        <v>0.32</v>
+      </c>
+      <c r="C179">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>11</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1.958</v>
+      </c>
+      <c r="B180">
+        <v>0.26</v>
+      </c>
+      <c r="C180">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>11</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>22</v>
+      </c>
+      <c r="K180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B181">
+        <v>0.222</v>
+      </c>
+      <c r="C181">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>11</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2.44</v>
+      </c>
+      <c r="B182">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C182">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>11</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B183">
+        <v>0.125</v>
+      </c>
+      <c r="C183">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>11</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1</v>
+      </c>
+      <c r="K183" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2.754</v>
+      </c>
+      <c r="B184">
+        <v>0.09</v>
+      </c>
+      <c r="C184">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>11</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1</v>
+      </c>
+      <c r="K184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B185">
+        <v>0.04</v>
+      </c>
+      <c r="C185">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>11</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" t="s">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>0.6</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>11</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B190">
+        <v>0.93</v>
+      </c>
+      <c r="C190">
+        <v>-0.06</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>11</v>
+      </c>
+      <c r="G190">
+        <v>4</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>18</v>
+      </c>
+      <c r="K190" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B191">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C191">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>11</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>18</v>
+      </c>
+      <c r="K191" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1.268</v>
+      </c>
+      <c r="B192">
+        <v>0.43</v>
+      </c>
+      <c r="C192">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>11</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>22</v>
+      </c>
+      <c r="K192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B193">
+        <v>0.32</v>
+      </c>
+      <c r="C193">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>11</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>22</v>
+      </c>
+      <c r="K193" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1.958</v>
+      </c>
+      <c r="B194">
+        <v>0.26</v>
+      </c>
+      <c r="C194">
+        <v>-0.61</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>11</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>22</v>
+      </c>
+      <c r="K194" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B195">
+        <v>0.222</v>
+      </c>
+      <c r="C195">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>11</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>22</v>
+      </c>
+      <c r="K195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2.44</v>
+      </c>
+      <c r="B196">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C196">
+        <v>-0.65</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>11</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1</v>
+      </c>
+      <c r="K196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B197">
+        <v>0.125</v>
+      </c>
+      <c r="C197">
+        <v>-0.61</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>11</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1</v>
+      </c>
+      <c r="K197" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2.754</v>
+      </c>
+      <c r="B198">
+        <v>0.09</v>
+      </c>
+      <c r="C198">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>11</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1</v>
+      </c>
+      <c r="K198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B199">
+        <v>0.04</v>
+      </c>
+      <c r="C199">
+        <v>-0.42</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>11</v>
+      </c>
+      <c r="G199">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1</v>
+      </c>
+      <c r="K199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" t="s">
+        <v>2</v>
+      </c>
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>0.6</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>11</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>25</v>
+      </c>
+      <c r="K203" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B204">
+        <v>0.93</v>
+      </c>
+      <c r="C204">
+        <v>-0.06</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>11</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>25</v>
+      </c>
+      <c r="K204" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B205">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C205">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>11</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>18</v>
+      </c>
+      <c r="K205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1.268</v>
+      </c>
+      <c r="B206">
+        <v>0.43</v>
+      </c>
+      <c r="C206">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>11</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>22</v>
+      </c>
+      <c r="K206" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B207">
+        <v>0.32</v>
+      </c>
+      <c r="C207">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>11</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>22</v>
+      </c>
+      <c r="K207" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1.958</v>
+      </c>
+      <c r="B208">
+        <v>0.26</v>
+      </c>
+      <c r="C208">
+        <v>-0.61</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>11</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1</v>
+      </c>
+      <c r="K208" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B209">
+        <v>0.222</v>
+      </c>
+      <c r="C209">
+        <v>-0.64</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>11</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1</v>
+      </c>
+      <c r="K209" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2.44</v>
+      </c>
+      <c r="B210">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C210">
+        <v>-0.66</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>11</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1</v>
+      </c>
+      <c r="K210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B211">
+        <v>0.125</v>
+      </c>
+      <c r="C211">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>11</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2.754</v>
+      </c>
+      <c r="B212">
+        <v>0.09</v>
+      </c>
+      <c r="C212">
+        <v>-0.62</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>11</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1</v>
+      </c>
+      <c r="K212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B213">
+        <v>0.04</v>
+      </c>
+      <c r="C213">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="F213">
+        <v>11</v>
+      </c>
+      <c r="G213">
+        <v>2</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>0.6</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>11</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>18</v>
+      </c>
+      <c r="K217" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B218">
+        <v>0.93</v>
+      </c>
+      <c r="C218">
+        <v>-0.06</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>11</v>
+      </c>
+      <c r="G218">
+        <v>4</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>18</v>
+      </c>
+      <c r="K218" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B219">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C219">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>11</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>18</v>
+      </c>
+      <c r="K219" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1.268</v>
+      </c>
+      <c r="B220">
+        <v>0.43</v>
+      </c>
+      <c r="C220">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>22</v>
+      </c>
+      <c r="K220" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B221">
+        <v>0.32</v>
+      </c>
+      <c r="C221">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>11</v>
+      </c>
+      <c r="G221">
+        <v>2</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>22</v>
+      </c>
+      <c r="K221" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1.958</v>
+      </c>
+      <c r="B222">
+        <v>0.26</v>
+      </c>
+      <c r="C222">
+        <v>-0.61</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>11</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>1</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B223">
+        <v>0.222</v>
+      </c>
+      <c r="C223">
+        <v>-0.64</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>11</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>1</v>
+      </c>
+      <c r="K223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2.44</v>
+      </c>
+      <c r="B224">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C224">
+        <v>-0.65</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>11</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>1</v>
+      </c>
+      <c r="K224" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B225">
+        <v>0.125</v>
+      </c>
+      <c r="C225">
+        <v>-0.64</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>11</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1</v>
+      </c>
+      <c r="K225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2.754</v>
+      </c>
+      <c r="B226">
+        <v>0.09</v>
+      </c>
+      <c r="C226">
+        <v>-0.63</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>11</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>1</v>
+      </c>
+      <c r="K226" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B227">
+        <v>0.04</v>
+      </c>
+      <c r="C227">
+        <v>-0.6</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>3</v>
+      </c>
+      <c r="F227">
+        <v>11</v>
+      </c>
+      <c r="G227">
+        <v>2</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>1</v>
+      </c>
+      <c r="K227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0</v>
+      </c>
+      <c r="B233">
+        <v>0.6</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>11</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>25</v>
+      </c>
+      <c r="K233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B234">
+        <v>0.93</v>
+      </c>
+      <c r="C234">
+        <v>-0.06</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>11</v>
+      </c>
+      <c r="G234">
+        <v>4</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234" t="s">
+        <v>25</v>
+      </c>
+      <c r="K234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B235">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C235">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>11</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>18</v>
+      </c>
+      <c r="K235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1.268</v>
+      </c>
+      <c r="B236">
+        <v>0.43</v>
+      </c>
+      <c r="C236">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>11</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236" t="s">
+        <v>22</v>
+      </c>
+      <c r="K236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B237">
+        <v>0.32</v>
+      </c>
+      <c r="C237">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>11</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>22</v>
+      </c>
+      <c r="K237" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.958</v>
+      </c>
+      <c r="B238">
+        <v>0.26</v>
+      </c>
+      <c r="C238">
+        <v>-0.61</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>11</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>22</v>
+      </c>
+      <c r="K238" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B239">
+        <v>0.222</v>
+      </c>
+      <c r="C239">
+        <v>-0.64</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>11</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>22</v>
+      </c>
+      <c r="K239" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2.44</v>
+      </c>
+      <c r="B240">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C240">
+        <v>-0.66</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>11</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>22</v>
+      </c>
+      <c r="K240" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B241">
+        <v>0.125</v>
+      </c>
+      <c r="C241">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>11</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1</v>
+      </c>
+      <c r="K241" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2.754</v>
+      </c>
+      <c r="B242">
+        <v>0.09</v>
+      </c>
+      <c r="C242">
+        <v>-0.62</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>11</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1</v>
+      </c>
+      <c r="K242" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B243">
+        <v>0.04</v>
+      </c>
+      <c r="C243">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>11</v>
+      </c>
+      <c r="G243">
+        <v>2</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243" t="s">
+        <v>1</v>
+      </c>
+      <c r="K243" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>0.6</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>11</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249" t="s">
+        <v>25</v>
+      </c>
+      <c r="K249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B250">
+        <v>0.93</v>
+      </c>
+      <c r="C250">
+        <v>-0.06</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>11</v>
+      </c>
+      <c r="G250">
+        <v>4</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250" t="s">
+        <v>25</v>
+      </c>
+      <c r="K250" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B251">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C251">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>11</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251" t="s">
+        <v>18</v>
+      </c>
+      <c r="K251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1.268</v>
+      </c>
+      <c r="B252">
+        <v>0.43</v>
+      </c>
+      <c r="C252">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>11</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252" t="s">
+        <v>22</v>
+      </c>
+      <c r="K252" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B253">
+        <v>0.32</v>
+      </c>
+      <c r="C253">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>11</v>
+      </c>
+      <c r="G253">
+        <v>2</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>22</v>
+      </c>
+      <c r="K253" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1.958</v>
+      </c>
+      <c r="B254">
+        <v>0.26</v>
+      </c>
+      <c r="C254">
+        <v>-0.61</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>11</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254" t="s">
+        <v>22</v>
+      </c>
+      <c r="K254" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B255">
+        <v>0.222</v>
+      </c>
+      <c r="C255">
+        <v>-0.64</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>11</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255" t="s">
+        <v>22</v>
+      </c>
+      <c r="K255" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2.44</v>
+      </c>
+      <c r="B256">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C256">
+        <v>-0.66</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>11</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256" t="s">
+        <v>22</v>
+      </c>
+      <c r="K256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B257">
+        <v>0.125</v>
+      </c>
+      <c r="C257">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>11</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257" t="s">
+        <v>1</v>
+      </c>
+      <c r="K257" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2.754</v>
+      </c>
+      <c r="B258">
+        <v>0.09</v>
+      </c>
+      <c r="C258">
+        <v>-0.62</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>11</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1</v>
+      </c>
+      <c r="K258" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B259">
+        <v>0.04</v>
+      </c>
+      <c r="C259">
+        <v>-0.5</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+      <c r="F259">
+        <v>11</v>
+      </c>
+      <c r="G259">
+        <v>2</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1</v>
+      </c>
+      <c r="K259" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>0.6</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>11</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>25</v>
+      </c>
+      <c r="K263" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B264">
+        <v>0.93</v>
+      </c>
+      <c r="C264">
+        <v>-0.06</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>11</v>
+      </c>
+      <c r="G264">
+        <v>4</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>25</v>
+      </c>
+      <c r="K264" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B265">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C265">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>11</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>18</v>
+      </c>
+      <c r="K265" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1.268</v>
+      </c>
+      <c r="B266">
+        <v>0.43</v>
+      </c>
+      <c r="C266">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>11</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266" t="s">
+        <v>22</v>
+      </c>
+      <c r="K266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B267">
+        <v>0.32</v>
+      </c>
+      <c r="C267">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>11</v>
+      </c>
+      <c r="G267">
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267" t="s">
+        <v>22</v>
+      </c>
+      <c r="K267" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1.958</v>
+      </c>
+      <c r="B268">
+        <v>0.26</v>
+      </c>
+      <c r="C268">
+        <v>-0.61</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>11</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268" t="s">
+        <v>22</v>
+      </c>
+      <c r="K268" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B269">
+        <v>0.222</v>
+      </c>
+      <c r="C269">
+        <v>-0.64</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>11</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269" t="s">
+        <v>22</v>
+      </c>
+      <c r="K269" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2.44</v>
+      </c>
+      <c r="B270">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C270">
+        <v>-0.66</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>11</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270" t="s">
+        <v>22</v>
+      </c>
+      <c r="K270" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B271">
+        <v>0.125</v>
+      </c>
+      <c r="C271">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>3</v>
+      </c>
+      <c r="F271">
+        <v>11</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1</v>
+      </c>
+      <c r="K271" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2.754</v>
+      </c>
+      <c r="B272">
+        <v>0.09</v>
+      </c>
+      <c r="C272">
+        <v>-0.62</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>3</v>
+      </c>
+      <c r="F272">
+        <v>11</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1</v>
+      </c>
+      <c r="K272" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B273">
+        <v>0.04</v>
+      </c>
+      <c r="C273">
+        <v>-0.5</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>5</v>
+      </c>
+      <c r="F273">
+        <v>11</v>
+      </c>
+      <c r="G273">
+        <v>2</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273" t="s">
+        <v>1</v>
+      </c>
+      <c r="K273" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0.6</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>11</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278" t="s">
+        <v>25</v>
+      </c>
+      <c r="K278" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B279">
+        <v>0.93</v>
+      </c>
+      <c r="C279">
+        <v>-0.06</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>11</v>
+      </c>
+      <c r="G279">
+        <v>4</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>25</v>
+      </c>
+      <c r="K279" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B280">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C280">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>11</v>
+      </c>
+      <c r="G280">
+        <v>3</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280" t="s">
+        <v>18</v>
+      </c>
+      <c r="K280" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1.268</v>
+      </c>
+      <c r="B281">
+        <v>0.43</v>
+      </c>
+      <c r="C281">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>11</v>
+      </c>
+      <c r="G281">
+        <v>3</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281" t="s">
+        <v>22</v>
+      </c>
+      <c r="K281" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B282">
+        <v>0.32</v>
+      </c>
+      <c r="C282">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>11</v>
+      </c>
+      <c r="G282">
+        <v>2</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>22</v>
+      </c>
+      <c r="K282" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1.958</v>
+      </c>
+      <c r="B283">
+        <v>0.26</v>
+      </c>
+      <c r="C283">
+        <v>-0.61</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>11</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>22</v>
+      </c>
+      <c r="K283" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B284">
+        <v>0.222</v>
+      </c>
+      <c r="C284">
+        <v>-0.64</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>11</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>22</v>
+      </c>
+      <c r="K284" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2.44</v>
+      </c>
+      <c r="B285">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C285">
+        <v>-0.66</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>3</v>
+      </c>
+      <c r="F285">
+        <v>11</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285" t="s">
+        <v>22</v>
+      </c>
+      <c r="K285" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B286">
+        <v>0.125</v>
+      </c>
+      <c r="C286">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>11</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286" t="s">
+        <v>1</v>
+      </c>
+      <c r="K286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2.754</v>
+      </c>
+      <c r="B287">
+        <v>0.09</v>
+      </c>
+      <c r="C287">
+        <v>-0.62</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>4</v>
+      </c>
+      <c r="F287">
+        <v>11</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>1</v>
+      </c>
+      <c r="K287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B288">
+        <v>0.04</v>
+      </c>
+      <c r="C288">
+        <v>-0.5</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>6</v>
+      </c>
+      <c r="F288">
+        <v>11</v>
+      </c>
+      <c r="G288">
+        <v>2</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288" t="s">
+        <v>1</v>
+      </c>
+      <c r="K288" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>0.6</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>11</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293" t="s">
+        <v>25</v>
+      </c>
+      <c r="K293" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B294">
+        <v>0.93</v>
+      </c>
+      <c r="C294">
+        <v>-0.06</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>11</v>
+      </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294" t="s">
+        <v>25</v>
+      </c>
+      <c r="K294" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B295">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C295">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>11</v>
+      </c>
+      <c r="G295">
+        <v>3</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295" t="s">
+        <v>18</v>
+      </c>
+      <c r="K295" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1.268</v>
+      </c>
+      <c r="B296">
+        <v>0.43</v>
+      </c>
+      <c r="C296">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>11</v>
+      </c>
+      <c r="G296">
+        <v>3</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296" t="s">
+        <v>22</v>
+      </c>
+      <c r="K296" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B297">
+        <v>0.32</v>
+      </c>
+      <c r="C297">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>11</v>
+      </c>
+      <c r="G297">
+        <v>2</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>22</v>
+      </c>
+      <c r="K297" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1.958</v>
+      </c>
+      <c r="B298">
+        <v>0.26</v>
+      </c>
+      <c r="C298">
+        <v>-0.61</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>11</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298" t="s">
+        <v>22</v>
+      </c>
+      <c r="K298" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B299">
+        <v>0.222</v>
+      </c>
+      <c r="C299">
+        <v>-0.64</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>11</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299" t="s">
+        <v>22</v>
+      </c>
+      <c r="K299" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2.44</v>
+      </c>
+      <c r="B300">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C300">
+        <v>-0.66</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300">
+        <v>11</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300" t="s">
+        <v>22</v>
+      </c>
+      <c r="K300" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B301">
+        <v>0.125</v>
+      </c>
+      <c r="C301">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>11</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301" t="s">
+        <v>1</v>
+      </c>
+      <c r="K301" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2.754</v>
+      </c>
+      <c r="B302">
+        <v>0.09</v>
+      </c>
+      <c r="C302">
+        <v>-0.62</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>4</v>
+      </c>
+      <c r="F302">
+        <v>11</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302" t="s">
+        <v>1</v>
+      </c>
+      <c r="K302" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2.8115000000000001</v>
+      </c>
+      <c r="B303">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C303">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>5</v>
+      </c>
+      <c r="F303">
+        <v>11</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303" t="s">
+        <v>1</v>
+      </c>
+      <c r="K303" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B304">
+        <v>0.04</v>
+      </c>
+      <c r="C304">
+        <v>-0.52</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>6</v>
+      </c>
+      <c r="F304">
+        <v>11</v>
+      </c>
+      <c r="G304">
+        <v>2</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1</v>
+      </c>
+      <c r="K304" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0.6</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>11</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309" t="s">
+        <v>25</v>
+      </c>
+      <c r="K309" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B310">
+        <v>0.93</v>
+      </c>
+      <c r="C310">
+        <v>-0.06</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>11</v>
+      </c>
+      <c r="G310">
+        <v>4</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310" t="s">
+        <v>25</v>
+      </c>
+      <c r="K310" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B311">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C311">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>11</v>
+      </c>
+      <c r="G311">
+        <v>3</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311" t="s">
+        <v>18</v>
+      </c>
+      <c r="K311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1.268</v>
+      </c>
+      <c r="B312">
+        <v>0.47</v>
+      </c>
+      <c r="C312">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>11</v>
+      </c>
+      <c r="G312">
+        <v>3</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312" t="s">
+        <v>22</v>
+      </c>
+      <c r="K312" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B313">
+        <v>0.34</v>
+      </c>
+      <c r="C313">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>11</v>
+      </c>
+      <c r="G313">
+        <v>2</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313" t="s">
+        <v>22</v>
+      </c>
+      <c r="K313" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1.958</v>
+      </c>
+      <c r="B314">
+        <v>0.24</v>
+      </c>
+      <c r="C314">
+        <v>-0.61</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>11</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314" t="s">
+        <v>22</v>
+      </c>
+      <c r="K314" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B315">
+        <v>0.18</v>
+      </c>
+      <c r="C315">
+        <v>-0.64</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>11</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315" t="s">
+        <v>22</v>
+      </c>
+      <c r="K315" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2.44</v>
+      </c>
+      <c r="B316">
+        <v>0.11</v>
+      </c>
+      <c r="C316">
+        <v>-0.66</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>3</v>
+      </c>
+      <c r="F316">
+        <v>11</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316" t="s">
+        <v>22</v>
+      </c>
+      <c r="K316" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B317">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C317">
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+      <c r="F317">
+        <v>11</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317" t="s">
+        <v>1</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2.754</v>
+      </c>
+      <c r="B318">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C318">
+        <v>-0.67</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>4</v>
+      </c>
+      <c r="F318">
+        <v>11</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318" t="s">
+        <v>1</v>
+      </c>
+      <c r="K318" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2.8115000000000001</v>
+      </c>
+      <c r="B319">
+        <v>0.04</v>
+      </c>
+      <c r="C319">
+        <v>-0.66</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>5</v>
+      </c>
+      <c r="F319">
+        <v>11</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319" t="s">
+        <v>1</v>
+      </c>
+      <c r="K319" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B320">
+        <v>0.03</v>
+      </c>
+      <c r="C320">
+        <v>-0.65</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>6</v>
+      </c>
+      <c r="F320">
+        <v>11</v>
+      </c>
+      <c r="G320">
+        <v>2</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0.6</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>11</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324" t="s">
+        <v>25</v>
+      </c>
+      <c r="K324" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B325">
+        <v>0.93</v>
+      </c>
+      <c r="C325">
+        <v>-0.06</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>11</v>
+      </c>
+      <c r="G325">
+        <v>4</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325" t="s">
+        <v>25</v>
+      </c>
+      <c r="K325" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B326">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C326">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>11</v>
+      </c>
+      <c r="G326">
+        <v>3</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326" t="s">
+        <v>18</v>
+      </c>
+      <c r="K326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1.268</v>
+      </c>
+      <c r="B327">
+        <v>0.47</v>
+      </c>
+      <c r="C327">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>11</v>
+      </c>
+      <c r="G327">
+        <v>3</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327" t="s">
+        <v>22</v>
+      </c>
+      <c r="K327" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B328">
+        <v>0.34</v>
+      </c>
+      <c r="C328">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>11</v>
+      </c>
+      <c r="G328">
+        <v>2</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328" t="s">
+        <v>22</v>
+      </c>
+      <c r="K328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1.958</v>
+      </c>
+      <c r="B329">
+        <v>0.24</v>
+      </c>
+      <c r="C329">
+        <v>-0.61</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>11</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329" t="s">
+        <v>22</v>
+      </c>
+      <c r="K329" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B330">
+        <v>0.18</v>
+      </c>
+      <c r="C330">
+        <v>-0.64</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>11</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330" t="s">
+        <v>22</v>
+      </c>
+      <c r="K330" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2.44</v>
+      </c>
+      <c r="B331">
+        <v>0.11</v>
+      </c>
+      <c r="C331">
+        <v>-0.66</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>2</v>
+      </c>
+      <c r="F331">
+        <v>11</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331" t="s">
+        <v>22</v>
+      </c>
+      <c r="K331" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B332">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C332">
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>11</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1</v>
+      </c>
+      <c r="K332" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2.754</v>
+      </c>
+      <c r="B333">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C333">
+        <v>-0.67</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>11</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333" t="s">
+        <v>1</v>
+      </c>
+      <c r="K333" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2.8115000000000001</v>
+      </c>
+      <c r="B334">
+        <v>0.04</v>
+      </c>
+      <c r="C334">
+        <v>-0.66</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <v>11</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334" t="s">
+        <v>1</v>
+      </c>
+      <c r="K334" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B335">
+        <v>0.03</v>
+      </c>
+      <c r="C335">
+        <v>-0.65</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+      <c r="F335">
+        <v>11</v>
+      </c>
+      <c r="G335">
+        <v>2</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335" t="s">
+        <v>1</v>
+      </c>
+      <c r="K335" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>0</v>
+      </c>
+      <c r="B341">
+        <v>0.6</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>11</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>1</v>
+      </c>
+      <c r="K341" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B342">
+        <v>0.87</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>11</v>
+      </c>
+      <c r="G342">
+        <v>2</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342" t="s">
+        <v>1</v>
+      </c>
+      <c r="K342" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B343">
+        <v>0.5</v>
+      </c>
+      <c r="C343">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>11</v>
+      </c>
+      <c r="G343">
+        <v>2</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343" t="s">
+        <v>1</v>
+      </c>
+      <c r="K343" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1.268</v>
+      </c>
+      <c r="B344">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C344">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>11</v>
+      </c>
+      <c r="G344">
+        <v>2</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1</v>
+      </c>
+      <c r="K344" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="B345">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="C345">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>11</v>
+      </c>
+      <c r="G345">
+        <v>2</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345" t="s">
+        <v>1</v>
+      </c>
+      <c r="K345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1.958</v>
+      </c>
+      <c r="B346">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C346">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>11</v>
+      </c>
+      <c r="G346">
+        <v>2</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346" t="s">
+        <v>1</v>
+      </c>
+      <c r="K346" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B347">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C347">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>11</v>
+      </c>
+      <c r="G347">
+        <v>2</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2.44</v>
+      </c>
+      <c r="B348">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C348">
+        <v>0.158</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>11</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1</v>
+      </c>
+      <c r="K348" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="B349">
+        <v>0.222</v>
+      </c>
+      <c r="C349">
+        <v>0.22</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>11</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349" t="s">
+        <v>1</v>
+      </c>
+      <c r="K349" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2.754</v>
+      </c>
+      <c r="B350">
+        <v>0.186</v>
+      </c>
+      <c r="C350">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>11</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350" t="s">
+        <v>1</v>
+      </c>
+      <c r="K350" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B351">
+        <v>0.12</v>
+      </c>
+      <c r="C351">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>11</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351" t="s">
+        <v>1</v>
+      </c>
+      <c r="K351" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>0.04</v>
+      </c>
+      <c r="C352">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>11</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352" t="s">
+        <v>1</v>
+      </c>
+      <c r="K352" t="s">
         <v>1</v>
       </c>
     </row>

--- a/project/wingshapes.xlsx
+++ b/project/wingshapes.xlsx
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340:K353"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
